--- a/PI/Formularios PI/GerenciamentoDeCustos PI.xlsx
+++ b/PI/Formularios PI/GerenciamentoDeCustos PI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\Github\Gerenciamento-de-projetos\PI\Formularios PI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Data de Inicio</t>
   </si>
@@ -47,7 +47,16 @@
     <t>Servidor</t>
   </si>
   <si>
-    <t>Custo de Aquisição</t>
+    <t>Dominio</t>
+  </si>
+  <si>
+    <t>Desenvolvedor DB</t>
+  </si>
+  <si>
+    <t>Custo total</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------------------------------------------</t>
   </si>
 </sst>
 </file>
@@ -74,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -98,69 +107,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -168,47 +167,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -222,7 +182,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -233,7 +195,22 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -241,10 +218,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -253,23 +230,21 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,11 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,73 +537,138 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="14">
         <v>44316</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>44499</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="8" t="str">
+      <c r="D2" s="3" t="str">
         <f>DATEDIF(B2,C2,"ym")&amp;" Mesês,"&amp;DATEDIF(B2,C2,"y")&amp;" Anos."</f>
         <v>6 Mesês,0 Anos.</v>
       </c>
-      <c r="F2" s="5">
+      <c r="E2" s="1">
         <f>DATEDIF(B2,C2,"m")</f>
         <v>6</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F2" s="9">
         <v>250</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12">
-        <f t="shared" ref="I2" si="0">G2*F2</f>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2" si="0">F2*E2</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="14">
+        <v>44286</v>
+      </c>
+      <c r="C3" s="8">
+        <v>44375</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>DATEDIF(B3,C3,"ym")&amp;" Mesês,"&amp;DATEDIF(B3,C3,"y")&amp;" Anos."</f>
+        <v>2 Mesês,0 Anos.</v>
+      </c>
+      <c r="E3" s="1">
+        <f>DATEDIF(B3,C3,"m")</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H4" si="1">F3*E3</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14">
+        <v>44316</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44375</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f>DATEDIF(B4,C4,"ym")&amp;" Mesês,"&amp;DATEDIF(B4,C4,"y")&amp;" Anos."</f>
+        <v>1 Mesês,0 Anos.</v>
+      </c>
+      <c r="E4" s="15">
+        <f>DATEDIF(B4,C4,"m")</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="13">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(H2:H4)</f>
+        <v>5660</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
